--- a/biology/Médecine/Dysplasie_métaphysaire/Dysplasie_métaphysaire.xlsx
+++ b/biology/Médecine/Dysplasie_métaphysaire/Dysplasie_métaphysaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysplasie_m%C3%A9taphysaire</t>
+          <t>Dysplasie_métaphysaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dysplasie métaphysaire est une anomalie héréditaire de la croissance des os longs qui se traduit radiologiquement par des irrégularités des jonctions entre diaphyse et métaphyse.
 Il en résulte une petite taille par brièveté des membres. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysplasie_m%C3%A9taphysaire</t>
+          <t>Dysplasie_métaphysaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Maladies génétiques où une dysplasie métaphysaire est présente</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de la médecine                     </t>
         </is>
